--- a/src/test/java/ApachePOI/resource/ForEachList.xlsx
+++ b/src/test/java/ApachePOI/resource/ForEachList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>EmpID</t>
   </si>
@@ -21,6 +21,9 @@
   </si>
   <si>
     <t>Job</t>
+  </si>
+  <si>
+    <t>status</t>
   </si>
   <si>
     <t>David</t>
@@ -83,7 +86,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -99,32 +102,50 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2"/>
+      <c r="A2" t="n">
+        <v>101.0</v>
+      </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3"/>
+      <c r="A3" t="n">
+        <v>102.0</v>
+      </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="D3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4"/>
+      <c r="A4" t="n">
+        <v>103.0</v>
+      </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
